--- a/report_template.xlsx
+++ b/report_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfgar\Documents\School\courses\python-basic\projects\homeworks\module070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sokolov\pampskill_PyCharm\module7\pandashome\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D26D15-49AA-49BE-8F62-180FB639F392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -105,15 +104,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-419]mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="[$-419]mmmm\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -700,8 +699,8 @@
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
@@ -716,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="33" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="33" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="33" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
@@ -727,18 +726,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" applyFill="0" applyProtection="0">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="7" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="167" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="8" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="8" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -774,14 +773,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -796,7 +795,7 @@
     <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,65 +816,65 @@
     </xf>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="20% — акцент1 2" xfId="32" xr:uid="{49065DF9-B46E-4BAD-9BC2-94D21E1575B7}"/>
-    <cellStyle name="20% — акцент2 2" xfId="36" xr:uid="{64E974D8-21E4-4419-A7B7-80CACFC5BDEB}"/>
-    <cellStyle name="20% — акцент3 2" xfId="40" xr:uid="{EF4EADDC-6750-4367-A743-CA7AD42F759F}"/>
-    <cellStyle name="20% — акцент4 2" xfId="44" xr:uid="{46362E5F-F7B2-4354-844A-10BAC99F9615}"/>
-    <cellStyle name="20% — акцент5 2" xfId="48" xr:uid="{BFC63C43-C19F-460A-AA85-AF9F2CD3FA41}"/>
-    <cellStyle name="20% — акцент6 2" xfId="52" xr:uid="{CE467CD9-BE57-486E-8D26-86EB0F737D3C}"/>
-    <cellStyle name="40% — акцент1 2" xfId="33" xr:uid="{7CDB867F-AAAA-41A2-BA75-F025DAB81CFF}"/>
-    <cellStyle name="40% — акцент2 2" xfId="37" xr:uid="{55060527-E16C-4919-B7F2-33A3C65CDDD1}"/>
-    <cellStyle name="40% — акцент3 2" xfId="41" xr:uid="{92DC805F-8E24-483A-A214-FAA430E8ABAD}"/>
-    <cellStyle name="40% — акцент4 2" xfId="45" xr:uid="{569A6C6D-7548-47DF-8FF0-06667046331B}"/>
-    <cellStyle name="40% — акцент5 2" xfId="49" xr:uid="{706D280C-2A49-467A-AFCE-7D66005C6AA0}"/>
-    <cellStyle name="40% — акцент6 2" xfId="53" xr:uid="{AFAA4A95-B98D-460A-8731-ADC5E34482A8}"/>
-    <cellStyle name="60% — акцент1 2" xfId="34" xr:uid="{00A25384-9264-46FE-A4D0-BD2F2953FDFF}"/>
-    <cellStyle name="60% — акцент2 2" xfId="38" xr:uid="{316CF522-C3B1-4F51-8DA1-3065A6E43C5D}"/>
-    <cellStyle name="60% — акцент3 2" xfId="42" xr:uid="{27A425B8-3FDE-47DD-80C9-241064D5DEEC}"/>
-    <cellStyle name="60% — акцент4 2" xfId="46" xr:uid="{7A1F75B1-515A-4630-8B9C-9059FFC38810}"/>
-    <cellStyle name="60% — акцент5 2" xfId="50" xr:uid="{D58B0D86-1EE3-4BA9-9186-99E1984CCF18}"/>
-    <cellStyle name="60% — акцент6 2" xfId="54" xr:uid="{096405D3-CD95-4DF8-B896-00589177EAED}"/>
-    <cellStyle name="Акцент1 2" xfId="31" xr:uid="{7AE9D72B-1523-410D-AF40-853EF3D722DB}"/>
-    <cellStyle name="Акцент2 2" xfId="35" xr:uid="{FAC7383A-AAB0-48E5-BE90-543C38191D90}"/>
-    <cellStyle name="Акцент3 2" xfId="39" xr:uid="{D325A8DC-C806-4717-AD4A-8656D9CEE839}"/>
-    <cellStyle name="Акцент4 2" xfId="43" xr:uid="{35AEEE18-7269-4C80-BE2D-6C83EAE4C16C}"/>
-    <cellStyle name="Акцент5 2" xfId="47" xr:uid="{0F4BCEC3-82B4-4BF6-A87F-CE5CF39E622B}"/>
-    <cellStyle name="Акцент6 2" xfId="51" xr:uid="{518BE9BB-CCED-4478-A10B-2411B749EBA1}"/>
-    <cellStyle name="Ввод  2" xfId="23" xr:uid="{65E297F4-EE7F-41CB-B43D-452869FAC39F}"/>
-    <cellStyle name="Вывод 2" xfId="24" xr:uid="{AD0851F1-E93E-40F5-B59E-A682814F46C5}"/>
-    <cellStyle name="Вычисление 2" xfId="25" xr:uid="{1CB2ABC5-F414-4B2C-8E26-6CD5D50FE414}"/>
-    <cellStyle name="Данные таблицы" xfId="11" xr:uid="{97E25099-8154-4E46-ACF7-9F10EC1956DF}"/>
-    <cellStyle name="Денежный [0] 2" xfId="7" xr:uid="{07F47AF1-2C84-4F46-B520-1CEEF82C9CC1}"/>
-    <cellStyle name="Денежный [0] 3" xfId="56" xr:uid="{2DF1D231-D27F-47A7-9472-67D12345E970}"/>
-    <cellStyle name="Денежный 2" xfId="19" xr:uid="{CCDF0C58-EF1D-46D9-A0FD-95BBE1AD9862}"/>
-    <cellStyle name="Денежный 3" xfId="55" xr:uid="{797B787D-EF5E-44AF-A3B4-0274ACA8C99B}"/>
-    <cellStyle name="Денежный 4" xfId="58" xr:uid="{2DCDAB7C-269E-44F7-A2EE-76C87C096384}"/>
-    <cellStyle name="Денежный 5" xfId="57" xr:uid="{F91295AE-F724-4238-95C4-CECE804656A9}"/>
-    <cellStyle name="Заголовок 1 2" xfId="6" xr:uid="{32723A2A-A306-4A98-A420-046332792B7D}"/>
-    <cellStyle name="Заголовок 2 2" xfId="12" xr:uid="{6ADF8DBB-C8B7-4DE4-A6DC-9AF7F77A476F}"/>
-    <cellStyle name="Заголовок 3 2" xfId="13" xr:uid="{97ACAE54-333F-4C4C-ABC2-D523DA5FA74B}"/>
-    <cellStyle name="Заголовок 4 2" xfId="14" xr:uid="{B1994011-E40F-490B-8232-CF436ECDDD8C}"/>
-    <cellStyle name="Заголовок таблицы 1" xfId="15" xr:uid="{1A0F045D-FEA1-475C-849B-3EDC8D50E597}"/>
-    <cellStyle name="Заполнение доходов" xfId="16" xr:uid="{1530832B-0F41-4825-8A48-4CB4D019545D}"/>
-    <cellStyle name="Заполнение расходов" xfId="18" xr:uid="{9D23D01E-92AC-4B9C-ACE8-F3D5A5952B30}"/>
-    <cellStyle name="Заполнение себестоимости продаж" xfId="17" xr:uid="{F707AAFE-7D7C-4B0C-816B-F6360055AEBC}"/>
-    <cellStyle name="Итог 2" xfId="30" xr:uid="{E03E429E-416A-412D-9EB9-A0C9F7B5EC27}"/>
-    <cellStyle name="Контрольная ячейка 2" xfId="27" xr:uid="{2EB23511-F7FE-4376-88BF-E7654FC3A35F}"/>
-    <cellStyle name="Название 2" xfId="5" xr:uid="{F2529A7A-3D3C-4165-88FB-DF095764B8A3}"/>
-    <cellStyle name="Нейтральный 2" xfId="22" xr:uid="{170F3799-29FF-4DF6-8803-D59BAB15F6AC}"/>
+    <cellStyle name="20% — акцент1 2" xfId="32"/>
+    <cellStyle name="20% — акцент2 2" xfId="36"/>
+    <cellStyle name="20% — акцент3 2" xfId="40"/>
+    <cellStyle name="20% — акцент4 2" xfId="44"/>
+    <cellStyle name="20% — акцент5 2" xfId="48"/>
+    <cellStyle name="20% — акцент6 2" xfId="52"/>
+    <cellStyle name="40% — акцент1 2" xfId="33"/>
+    <cellStyle name="40% — акцент2 2" xfId="37"/>
+    <cellStyle name="40% — акцент3 2" xfId="41"/>
+    <cellStyle name="40% — акцент4 2" xfId="45"/>
+    <cellStyle name="40% — акцент5 2" xfId="49"/>
+    <cellStyle name="40% — акцент6 2" xfId="53"/>
+    <cellStyle name="60% — акцент1 2" xfId="34"/>
+    <cellStyle name="60% — акцент2 2" xfId="38"/>
+    <cellStyle name="60% — акцент3 2" xfId="42"/>
+    <cellStyle name="60% — акцент4 2" xfId="46"/>
+    <cellStyle name="60% — акцент5 2" xfId="50"/>
+    <cellStyle name="60% — акцент6 2" xfId="54"/>
+    <cellStyle name="Акцент1 2" xfId="31"/>
+    <cellStyle name="Акцент2 2" xfId="35"/>
+    <cellStyle name="Акцент3 2" xfId="39"/>
+    <cellStyle name="Акцент4 2" xfId="43"/>
+    <cellStyle name="Акцент5 2" xfId="47"/>
+    <cellStyle name="Акцент6 2" xfId="51"/>
+    <cellStyle name="Ввод  2" xfId="23"/>
+    <cellStyle name="Вывод 2" xfId="24"/>
+    <cellStyle name="Вычисление 2" xfId="25"/>
+    <cellStyle name="Данные таблицы" xfId="11"/>
+    <cellStyle name="Денежный [0] 2" xfId="7"/>
+    <cellStyle name="Денежный [0] 3" xfId="56"/>
+    <cellStyle name="Денежный 2" xfId="19"/>
+    <cellStyle name="Денежный 3" xfId="55"/>
+    <cellStyle name="Денежный 4" xfId="58"/>
+    <cellStyle name="Денежный 5" xfId="57"/>
+    <cellStyle name="Заголовок 1 2" xfId="6"/>
+    <cellStyle name="Заголовок 2 2" xfId="12"/>
+    <cellStyle name="Заголовок 3 2" xfId="13"/>
+    <cellStyle name="Заголовок 4 2" xfId="14"/>
+    <cellStyle name="Заголовок таблицы 1" xfId="15"/>
+    <cellStyle name="Заполнение доходов" xfId="16"/>
+    <cellStyle name="Заполнение расходов" xfId="18"/>
+    <cellStyle name="Заполнение себестоимости продаж" xfId="17"/>
+    <cellStyle name="Итог 2" xfId="30"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="27"/>
+    <cellStyle name="Название 2" xfId="5"/>
+    <cellStyle name="Нейтральный 2" xfId="22"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Плохой 2" xfId="21" xr:uid="{54585961-2BD1-43A6-89AE-666705B86495}"/>
-    <cellStyle name="Пояснение 2" xfId="29" xr:uid="{ABECBAEE-012E-4896-AA8F-81BAD6D31B31}"/>
-    <cellStyle name="Прибыль" xfId="8" xr:uid="{CCF0E6B5-4F43-4F4E-9B80-B421CA50BEBF}"/>
+    <cellStyle name="Плохой 2" xfId="21"/>
+    <cellStyle name="Пояснение 2" xfId="29"/>
+    <cellStyle name="Прибыль" xfId="8"/>
     <cellStyle name="Примечание" xfId="3" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Процент прибыли" xfId="10" xr:uid="{C811D777-6DCA-4B37-BC30-B7D8BF699657}"/>
-    <cellStyle name="Процентный 2" xfId="4" xr:uid="{BAC157F1-12E6-40A7-8ADC-49192D514494}"/>
-    <cellStyle name="Связанная ячейка 2" xfId="26" xr:uid="{00CB48CA-D503-485F-9F34-87B961CE5D42}"/>
-    <cellStyle name="Сумма прибыли" xfId="9" xr:uid="{DEBF4138-0CD2-4D21-B9BB-449E6F2C5234}"/>
-    <cellStyle name="Текст предупреждения 2" xfId="28" xr:uid="{30608FBF-88F5-4EF1-8E53-A95F0EFDC1B1}"/>
+    <cellStyle name="Процент прибыли" xfId="10"/>
+    <cellStyle name="Процентный 2" xfId="4"/>
+    <cellStyle name="Связанная ячейка 2" xfId="26"/>
+    <cellStyle name="Сумма прибыли" xfId="9"/>
+    <cellStyle name="Текст предупреждения 2" xfId="28"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Финансовый [0]" xfId="2" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Хороший 2" xfId="20" xr:uid="{246B8C14-411C-4FCB-80AB-0D20A3481E92}"/>
+    <cellStyle name="Хороший 2" xfId="20"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -1296,27 +1295,27 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Прибыли и убытки — доходы" pivot="0" count="5" xr9:uid="{CF9DD735-54FA-46B0-B06E-8DC9A7B758D5}">
+    <tableStyle name="Прибыли и убытки — доходы" pivot="0" count="5">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="totalRow" dxfId="16"/>
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Прибыли и убытки — продажи" pivot="0" count="4" xr9:uid="{C6F487C1-EEF1-40E8-960F-86CB030F144D}">
+    <tableStyle name="Прибыли и убытки — продажи" pivot="0" count="4">
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Прибыли и убытки — расходы" pivot="0" count="5" xr9:uid="{A2FA33A7-7272-4203-B7DA-CCA0D71E5789}">
+    <tableStyle name="Прибыли и убытки — расходы" pivot="0" count="5">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="Прибыли и убытки — расходы 2" pivot="0" count="5" xr9:uid="{6DA9494B-3D14-40DF-8CB6-30A90E25D419}">
+    <tableStyle name="Прибыли и убытки — расходы 2" pivot="0" count="5">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="totalRow" dxfId="2"/>
@@ -1604,10 +1603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
